--- a/Project/excel/data.xlsx
+++ b/Project/excel/data.xlsx
@@ -657,10 +657,10 @@
         <v>City</v>
       </c>
       <c r="D1" t="str">
-        <v>UrlDescription</v>
+        <v>Description</v>
       </c>
       <c r="E1" t="str">
-        <v>Description</v>
+        <v xml:space="preserve">UrlDescription </v>
       </c>
       <c r="F1" t="str">
         <v>Verification</v>
@@ -677,10 +677,10 @@
         <v>Guntur</v>
       </c>
       <c r="D2" t="str">
+        <v>Verified the url contains the text store locator</v>
+      </c>
+      <c r="E2" t="str">
         <v>Navigates and verified URL About us</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Verified the url contains the text store locator</v>
       </c>
       <c r="F2" t="str">
         <v>Sort by</v>
@@ -696,7 +696,7 @@
       <c r="C3" t="str">
         <v>Andhra Pradesh</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>Navigates and verified URL Why reliance</v>
       </c>
       <c r="F3" t="str">
@@ -710,10 +710,7 @@
       <c r="B4" t="str">
         <v>https://www.reliancejewels.com/s/certification</v>
       </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>Navigates and verified URL Certification</v>
       </c>
     </row>
@@ -724,7 +721,7 @@
       <c r="B5" t="str">
         <v>https://reliancejewels.com/storelocator</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>Navigates and verified URL StoreLocator</v>
       </c>
     </row>
@@ -735,7 +732,7 @@
       <c r="B6" t="str">
         <v>https://m.reliancejewels.com/static/MediasecM2023.mobi</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>Navigates and verified URL Media</v>
       </c>
     </row>
@@ -746,7 +743,7 @@
       <c r="B7" t="str">
         <v>https://reliancejewels.com/blog/</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>Navigates and verified URL Blog</v>
       </c>
     </row>
@@ -757,7 +754,7 @@
       <c r="B8" t="str">
         <v>https://www.reliancejewels.com/s/faq</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>Navigates and verified URL FAQs</v>
       </c>
     </row>
@@ -768,7 +765,7 @@
       <c r="B9" t="str">
         <v>https://www.reliancejewels.com/track-your-order.html</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>Navigates and verified URL track your order</v>
       </c>
     </row>

--- a/Project/excel/data.xlsx
+++ b/Project/excel/data.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,9 +494,20 @@
         <v>Gifting | Kids | Pendant | Buy Gold &amp; Diamond Pendant Set for Men &amp; Women | Reliance Jewels</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>"Verifying Price on the Proceed to Pay Page"</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Price</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
